--- a/Общая_таблица_проценты_retail_sales.xlsx
+++ b/Общая_таблица_проценты_retail_sales.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>January_22</t>
@@ -546,7 +551,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Аромамашины</t>
         </is>
@@ -619,7 +624,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Вентиляторы вытяжные, дефлекторы и решетки</t>
         </is>
@@ -692,7 +697,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Вентиляторы</t>
         </is>
@@ -765,7 +770,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Водонагреватели</t>
         </is>
@@ -838,7 +843,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Кондиционеры и сплит-системы</t>
         </is>
@@ -911,7 +916,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Мойки воздуха</t>
         </is>
@@ -984,7 +989,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Обогреватели и тепловентиляторы</t>
         </is>
@@ -1057,7 +1062,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Осушители воздуха</t>
         </is>
@@ -1130,7 +1135,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Охладители воздуха</t>
         </is>
@@ -1203,7 +1208,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Очистители воздуха</t>
         </is>
@@ -1276,7 +1281,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Погодные станции и датчики</t>
         </is>
@@ -1349,7 +1354,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Расходные материалы</t>
         </is>
@@ -1422,7 +1427,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Бытовая техника_Климатическая техника_Увлажнители воздуха и аромадиффузоры</t>
         </is>
@@ -1495,7 +1500,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для дома_Паровые швабры</t>
         </is>
@@ -1568,7 +1573,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для дома_Пароочистители</t>
         </is>
@@ -1641,7 +1646,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для дома_Пылесосы и аксессуары</t>
         </is>
@@ -1714,7 +1719,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для дома_Стеклоочистители</t>
         </is>
@@ -1787,7 +1792,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для дома_Сушилки для рук</t>
         </is>
@@ -1860,7 +1865,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для дома_Утюги и отпариватели</t>
         </is>
@@ -1933,7 +1938,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для дома_Швейные машины и аксессуары</t>
         </is>
@@ -2006,7 +2011,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Выпрямители для волос</t>
         </is>
@@ -2079,7 +2084,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Массажное оборудование и аксессуары</t>
         </is>
@@ -2152,7 +2157,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Машинки для стрижки волос и аксессуары</t>
         </is>
@@ -2225,7 +2230,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Напольные весы</t>
         </is>
@@ -2298,7 +2303,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Триммеры для волос</t>
         </is>
@@ -2371,7 +2376,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Фены и термощетки</t>
         </is>
@@ -2444,7 +2449,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Щипцы для завивки и аксессуары</t>
         </is>
@@ -2517,7 +2522,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Электрические зубные щетки и аксессуары</t>
         </is>
@@ -2590,7 +2595,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Электробигуди</t>
         </is>
@@ -2663,7 +2668,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Электробритвы и аксессуары</t>
         </is>
@@ -2736,7 +2741,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для красоты и здоровья_Эпиляторы и аксессуары</t>
         </is>
@@ -2809,7 +2814,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Аксессуары для кухонной техники</t>
         </is>
@@ -2882,7 +2887,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Кофеварки и кофемашины</t>
         </is>
@@ -2955,7 +2960,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Миксеры, блендеры и измельчители</t>
         </is>
@@ -3028,7 +3033,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Мультиварки и техника для варки</t>
         </is>
@@ -3101,7 +3106,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Настольные плиты</t>
         </is>
@@ -3174,7 +3179,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Печи и грили</t>
         </is>
@@ -3247,7 +3252,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Прочая кухонная техника</t>
         </is>
@@ -3320,7 +3325,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Соковыжималки</t>
         </is>
@@ -3393,7 +3398,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Техника для приготовления блюд</t>
         </is>
@@ -3466,7 +3471,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Техника для приготовления десертов</t>
         </is>
@@ -3539,7 +3544,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Бытовая техника_Техника для кухни_Электрические чайники и термопоты</t>
         </is>
@@ -3612,7 +3617,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>Электроника_Игровые приставки и компьютеры_Игровые приставки</t>
         </is>
@@ -3685,7 +3690,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Электроника_Умный дом и безопасность_Умный дом</t>
         </is>
@@ -3758,7 +3763,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Электроника_Часы и электронные будильники_Электронные будильники</t>
         </is>
